--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>273386.1055297736</v>
+        <v>270947.6324300266</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>147.5947675034507</v>
+        <v>282.4605077549089</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>204.8287867478441</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>212.6652167733024</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0506985616704344</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>302.9446243547906</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>150.177975117266</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>77.84724700848633</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>142.3844270995955</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>93.5267620887755</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>81.97591349914535</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292584</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247737</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734097352</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004727</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>5.417911179179435</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.36465009685883</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>123.9815576456779</v>
+        <v>167.2468210986318</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833423</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F16" t="n">
-        <v>120.7871326503968</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>111.5361117049702</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2141,10 +2141,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>133.5908209162928</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.06560892427785</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272922</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833815</v>
+        <v>99.97427419833367</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272928</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182133</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>79.41314830963714</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.019807611472247</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2034.604709474942</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C2" t="n">
-        <v>1885.519085734082</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D2" t="n">
-        <v>1527.253387127332</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>1141.465134529087</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>730.4792297394799</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>315.4067795844764</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450753</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y2" t="n">
-        <v>2034.604709474942</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4522,16 +4522,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>845.4915543310558</v>
+        <v>665.4108858860666</v>
       </c>
       <c r="X4" t="n">
-        <v>845.4403436627018</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204828</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C5" t="n">
-        <v>1312.873537264416</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>954.607838657666</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>568.8195860594217</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
         <v>417.1246616985469</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.97538618064</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204828</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1758.830508009166</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1537.063892578692</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1247.961025704335</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>993.2765374984485</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>765.2869866004312</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>544.4944074569011</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2012.898941548401</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1643.936424607989</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.670726001239</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>899.8824734029947</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>488.8965686133872</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136269</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520491</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794327</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794327</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524213</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2403.038273524213</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2012.898941548401</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387302</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859227981</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031455</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158112</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438127</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>944.7237329438971</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.181730276492</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760412</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088494</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846022</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672848</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672848</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.093718466961</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1391.093718466961</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1163.104167568944</v>
+        <v>585.3344285704424</v>
       </c>
       <c r="Y10" t="n">
-        <v>1126.372197774137</v>
+        <v>364.5418494269122</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5176,25 +5176,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121604</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998246</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998246</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998246</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998246</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,13 +5413,13 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>215.8238677453423</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
         <v>93.81666304797187</v>
@@ -5589,19 +5589,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5789,7 +5789,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3584617859342</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,31 +5984,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6026,13 +6026,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138372</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703071</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6212,64 +6212,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>194.8007783998241</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206052</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926984</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.29148293524</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729353</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794375</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.407694650845</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2442.902671851501</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2260.047837506405</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7075,19 +7075,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,16 +7254,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>217.6781242675568</v>
+        <v>57.26675306204792</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182139</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788966</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F16" t="n">
-        <v>24.63391537253449</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>114.1735436840669</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819382</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.02465210191951</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372229132</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393069</v>
+        <v>65.54986409393517</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>206.771326079607</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>62.35543909864944</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>983238.5620485347</v>
+        <v>983238.5620485351</v>
       </c>
     </row>
     <row r="3">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019033</v>
+        <v>335917.9865019035</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389279</v>
+        <v>369468.7964389277</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389276</v>
       </c>
       <c r="E2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="F2" t="n">
         <v>363215.9698605026</v>
       </c>
       <c r="G2" t="n">
+        <v>363215.9698605025</v>
+      </c>
+      <c r="H2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="I2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>363215.9698605026</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="L2" t="n">
         <v>363215.9698605027</v>
       </c>
-      <c r="J2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="K2" t="n">
-        <v>363215.9698605029</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363215.9698605025</v>
-      </c>
       <c r="M2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="N2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="O2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="P2" t="n">
         <v>363215.9698605026</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.254361662489829e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073544</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50238.95917052893</v>
+        <v>50238.95917052907</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319388</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="F4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="F4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184278</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="L4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184279</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184275</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1150999.658957612</v>
+        <v>-1151186.05234615</v>
       </c>
       <c r="C6" t="n">
-        <v>168741.0129943406</v>
+        <v>168741.0129943404</v>
       </c>
       <c r="D6" t="n">
-        <v>168741.0129943397</v>
+        <v>168741.0129943402</v>
       </c>
       <c r="E6" t="n">
-        <v>-76925.82988260151</v>
+        <v>-76960.56780803807</v>
       </c>
       <c r="F6" t="n">
-        <v>248486.6319247528</v>
+        <v>248451.893999317</v>
       </c>
       <c r="G6" t="n">
-        <v>248486.6319247528</v>
+        <v>248451.893999317</v>
       </c>
       <c r="H6" t="n">
-        <v>248486.6319247527</v>
+        <v>248451.8939993171</v>
       </c>
       <c r="I6" t="n">
-        <v>248486.6319247528</v>
+        <v>248451.8939993171</v>
       </c>
       <c r="J6" t="n">
-        <v>30955.42952747537</v>
+        <v>30920.6916020396</v>
       </c>
       <c r="K6" t="n">
-        <v>248486.631924753</v>
+        <v>248451.893999317</v>
       </c>
       <c r="L6" t="n">
-        <v>248486.6319247526</v>
+        <v>248451.8939993171</v>
       </c>
       <c r="M6" t="n">
-        <v>163431.6039892413</v>
+        <v>163396.8660638054</v>
       </c>
       <c r="N6" t="n">
-        <v>248486.6319247529</v>
+        <v>248451.8939993172</v>
       </c>
       <c r="O6" t="n">
-        <v>248486.6319247529</v>
+        <v>248451.8939993173</v>
       </c>
       <c r="P6" t="n">
-        <v>248486.6319247527</v>
+        <v>248451.8939993171</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483748</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973554</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="E4" t="n">
-        <v>341.306832697355</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>25.54563095405071</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>89.77897763947638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>73.85778156328863</v>
       </c>
       <c r="X4" t="n">
-        <v>225.6589568273667</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>62.32826741621693</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>256.6980706244454</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>111.9217783229556</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>83.3252282894417</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>261.1562795319074</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>328.9458121543081</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>220.2917442098577</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.220003255236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28861,10 +28861,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -28971,7 +28971,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29247,7 +29247,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29484,7 +29484,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-2.386339083754669e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.089173092330179e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681601</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974801</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953991</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003814</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574999</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095028</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099063</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746417</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781693</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563571</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806958</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451122</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.350480948934528</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502568</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798533</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752262</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026411</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970253</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.610358400293</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987489</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238319</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898505</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,46 +31671,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430539</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702026</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098822</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883117</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086003</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802171</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895882</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553038</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112301</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,19 +31835,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31859,10 +31859,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,10 +32555,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,28 +32783,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33026,16 +33026,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687128</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554008</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302272</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193722</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037198</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222495</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359744</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525809</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.633379393484</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675403</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451106</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789377</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35507,10 +35507,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36674,16 +36674,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
